--- a/사운드/Sound List.xlsx
+++ b/사운드/Sound List.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\사운드\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A2A101-2959-4739-A9CC-3525A953EAE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="588" windowWidth="11232" windowHeight="4980"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>구분</t>
   </si>
@@ -34,466 +40,6 @@
     <t>Effect Sound</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자루의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>칼이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뽑힐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>깃발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽂힐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자물쇠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열릴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 화면에서 버튼이 움직이거나 터치 될 때 출력되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 화면에서 팝업이 오픈 될 때 출력되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중, 타일이 움직일 때 출력되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중, 타일이 z축으로 올라갈 때 출력되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중, 제한 시간이 다 하기 전에 경고의 의미로 출력되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중, 폭탄 공격 시 출력 되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 진행 중, 활 공격 시 출력 되는 소리.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BGM_PuzzleUI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -704,20 +250,6 @@
         <family val="2"/>
       </rPr>
       <t>lie_Up</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ime_Over</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -766,798 +298,2670 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tile_Dispose</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타일이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배치</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>될</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타일이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파괴되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Death_Monster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자루의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>칼이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽂힐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Sword_Crossing&amp;Attack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자루의</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽂힐</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자루의</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑힐</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>깃발</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽂힐</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자물쇠</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열릴</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>움직이거나</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>터치</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팝업이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오픈</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타일이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>움직일</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타일이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> z</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>축으로</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>올라갈</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제한</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하기</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전에</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경고의</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의미로</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폭탄</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타일이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파괴되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아케이드류</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeOver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1592,15 +2996,42 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1810,11 +3241,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="48">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1830,11 +3262,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1855,9 +3284,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1870,9 +3296,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1880,9 +3303,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1909,7 +3329,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,19 +3341,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,16 +3359,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2003,7 +3441,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2036,9 +3474,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2071,6 +3526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2246,14 +3718,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2284,20 +3756,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="47" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
@@ -2307,10 +3781,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>34</v>
+      <c r="E4" s="40" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -2322,38 +3796,41 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>6</v>
+      <c r="E5" s="40" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>27</v>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>7</v>
+      <c r="E6" s="41" t="s">
+        <v>22</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,11 +3840,11 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>9</v>
+      <c r="E8" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,140 +3854,133 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>19</v>
+      <c r="D9" s="8" t="s">
+        <v>9</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="27">
-        <v>8</v>
+      <c r="E10" s="41" t="s">
+        <v>26</v>
       </c>
-      <c r="C10" s="13" t="s">
+    </row>
+    <row r="11" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D11" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="29">
-        <v>9</v>
+      <c r="E11" s="42" t="s">
+        <v>27</v>
       </c>
-      <c r="C11" s="26" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24">
+        <v>11</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>21</v>
+      <c r="D13" s="20" t="s">
+        <v>34</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>12</v>
+      <c r="E13" s="43" t="s">
+        <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30">
-        <v>10</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28">
-        <v>11</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>26</v>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
-        <v>13</v>
+      <c r="E15" s="42" t="s">
+        <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>25</v>
+      <c r="D16" s="32" t="s">
+        <v>17</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E16" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34">
-        <v>14</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>28</v>
+      <c r="D17" s="35" t="s">
+        <v>18</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38">
-        <v>15</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="45" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="44"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="21"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
@@ -6457,7 +7927,22 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{E0004A90-46CD-4A03-A3EF-82E28F44C1A3}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{B731BB4A-F5BF-4662-8EA0-E305D248FEAD}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{B252A5C2-30C3-4E1B-AC68-B6C044FBDCDD}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{CB1E26A2-638D-4E9F-9147-DDBEF5C52FBA}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{94A07807-C18C-41A7-9A35-BCCA9574AD78}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{C1A2E752-B289-442C-80AC-4051F369DB58}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{BBC486D2-B621-4556-874A-9FC9ABBEC9DE}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{096C015B-B6EE-41AC-9D64-29D9907211DA}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{C07C07CB-6706-4A31-8254-88CFC9AC5AC6}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{360FDEA6-33D8-41BD-A726-892605BAECC5}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{F94F54C3-AFAA-4857-8F25-74A0319159E8}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{C36DDCF3-8E0B-4C9A-A5F1-0706122B33B6}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{16D44742-DDF5-4B4B-A9E6-C0D8C75BB5F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/사운드/Sound List.xlsx
+++ b/사운드/Sound List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\사운드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\슬퍼배\Slide Puzzle Battle Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A2A101-2959-4739-A9CC-3525A953EAE2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BEBD93-41D8-4613-A8EC-0CC8A7C92346}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>구분</t>
   </si>
@@ -40,6 +40,329 @@
     <t>Effect Sound</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자루의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뽑힐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자물쇠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열릴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 화면에서 버튼이 움직이거나 터치 될 때 출력되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중, 타일이 움직일 때 출력되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중, 타일이 z축으로 올라갈 때 출력되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중, 제한 시간이 다 하기 전에 경고의 의미로 출력되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중, 폭탄 공격 시 출력 되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 진행 중, 활 공격 시 출력 되는 소리.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>BGM_PuzzleUI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,7 +621,608 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스킬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몬스터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파괴되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Death_Monster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>두</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자루의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>칼이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>꽂힐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -306,350 +1230,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자루의</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>칼이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽂힐</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>모든 화면에서 팝업이 오픈 시, 출력되는 소리.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -658,19 +1245,14 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -679,19 +1261,14 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -700,2260 +1277,28 @@
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>두</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자루의</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>칼이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>뽑힐</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>깃발</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>꽂힐</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스테이지</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자물쇠</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>열릴</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>버튼이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>움직이거나</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>터치</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>될</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모든</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면에서</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>팝업이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>오픈</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>될</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타일이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>움직일</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타일이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> z</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>축으로</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>올라갈</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제한</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하기</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전에</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경고의</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의미로</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>폭탄</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공격</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스킬</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에너지</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>때</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게임</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>진행</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몬스터</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>타일이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파괴되는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소리</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아케이드류</t>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테이지 클리어 후, 깃발 애니메이션 중에 출력되는 소리.</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TimeOver</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2961,7 +1306,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2996,29 +1341,21 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3027,14 +1364,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial Unicode MS"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3049,18 +1380,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -3102,19 +1427,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -3149,74 +1461,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -3241,11 +1485,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3262,8 +1505,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3275,115 +1520,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3724,8 +1936,8 @@
   </sheetPr>
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3736,6 +1948,7 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
     <col min="5" max="5" width="106" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -3756,7 +1969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -3764,14 +1977,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
-      <c r="G3" s="47" t="s">
-        <v>33</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
@@ -3781,12 +1992,12 @@
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>20</v>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
@@ -3796,10 +2007,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>21</v>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3809,14 +2020,14 @@
       <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>16</v>
+      <c r="D6" s="13" t="s">
+        <v>24</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>22</v>
+      <c r="E6" s="25" t="s">
+        <v>32</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" s="35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,10 +2038,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
-      <c r="E7" s="40" t="s">
-        <v>23</v>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3841,10 +2052,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3855,200 +2066,202 @@
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>8</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="40" t="s">
+    </row>
+    <row r="11" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17">
+        <v>9</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33">
+        <v>12</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="23">
-        <v>8</v>
+      <c r="E15" s="20" t="s">
+        <v>26</v>
       </c>
-      <c r="C10" s="12" t="s">
+    </row>
+    <row r="16" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33">
+        <v>14</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>10</v>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
       </c>
-      <c r="E10" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25">
-        <v>9</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="42" t="s">
+      <c r="E16" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="15">
-        <v>13</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30">
-        <v>14</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="17" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33">
-        <v>15</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>32</v>
-      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="38"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -7927,22 +6140,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{E0004A90-46CD-4A03-A3EF-82E28F44C1A3}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{B731BB4A-F5BF-4662-8EA0-E305D248FEAD}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{B252A5C2-30C3-4E1B-AC68-B6C044FBDCDD}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{CB1E26A2-638D-4E9F-9147-DDBEF5C52FBA}"/>
-    <hyperlink ref="E8" r:id="rId5" xr:uid="{94A07807-C18C-41A7-9A35-BCCA9574AD78}"/>
-    <hyperlink ref="E9" r:id="rId6" xr:uid="{C1A2E752-B289-442C-80AC-4051F369DB58}"/>
-    <hyperlink ref="E10" r:id="rId7" xr:uid="{BBC486D2-B621-4556-874A-9FC9ABBEC9DE}"/>
-    <hyperlink ref="E11" r:id="rId8" xr:uid="{096C015B-B6EE-41AC-9D64-29D9907211DA}"/>
-    <hyperlink ref="E13" r:id="rId9" xr:uid="{C07C07CB-6706-4A31-8254-88CFC9AC5AC6}"/>
-    <hyperlink ref="E14" r:id="rId10" xr:uid="{360FDEA6-33D8-41BD-A726-892605BAECC5}"/>
-    <hyperlink ref="E15" r:id="rId11" xr:uid="{F94F54C3-AFAA-4857-8F25-74A0319159E8}"/>
-    <hyperlink ref="E16" r:id="rId12" xr:uid="{C36DDCF3-8E0B-4C9A-A5F1-0706122B33B6}"/>
-    <hyperlink ref="E17" r:id="rId13" xr:uid="{16D44742-DDF5-4B4B-A9E6-C0D8C75BB5F4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/사운드/Sound List.xlsx
+++ b/사운드/Sound List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\슬퍼배\Slide Puzzle Battle Sound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asherad\Desktop\GitHub\Sliding_Puzzle_Battle\사운드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BEBD93-41D8-4613-A8EC-0CC8A7C92346}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E667A783-B276-47BD-B9A1-FDB0F1BAECCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="37">
   <si>
     <t>구분</t>
   </si>
@@ -1301,12 +1301,20 @@
     <t>변경 완료</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>게임 클리어 시, 검 애니메이션과 함께 출력되는 소리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLEAR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1361,6 +1369,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1488,7 +1511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,6 +1615,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1936,8 +1968,8 @@
   </sheetPr>
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2174,10 +2206,18 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="36">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
